--- a/pruebas1920.xlsx
+++ b/pruebas1920.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView windowWidth="20490" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="59">
   <si>
     <t>Prueba</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>Panticosa</t>
+  </si>
+  <si>
+    <t>jeeeeeeeee</t>
+  </si>
+  <si>
+    <t>jo</t>
+  </si>
+  <si>
+    <t>jeo</t>
   </si>
   <si>
     <t>Cerler</t>
@@ -211,7 +220,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,14 +238,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,16 +257,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,6 +268,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,14 +290,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,7 +312,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,14 +327,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,9 +349,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,7 +384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,31 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,13 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +438,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +540,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,91 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,6 +575,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -580,35 +613,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,17 +641,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,16 +666,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,121 +705,121 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,10 +1149,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -2201,7 +2210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2228,6 +2237,9 @@
       </c>
       <c r="I38" t="s">
         <v>16</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2616,7 +2628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2643,6 +2655,12 @@
       </c>
       <c r="I52" t="s">
         <v>16</v>
+      </c>
+      <c r="L52" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2795,7 +2813,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -2824,7 +2842,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -2853,7 +2871,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
@@ -2874,7 +2892,7 @@
         <v>290211</v>
       </c>
       <c r="I60" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2882,7 +2900,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
@@ -2911,7 +2929,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
         <v>19</v>
@@ -2943,7 +2961,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
         <v>20</v>
@@ -2972,7 +2990,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C64" t="s">
         <v>21</v>
@@ -3001,7 +3019,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -3030,7 +3048,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3059,7 +3077,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
@@ -3088,7 +3106,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -3120,7 +3138,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
@@ -3149,7 +3167,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
         <v>20</v>
@@ -3178,7 +3196,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C71" t="s">
         <v>21</v>
@@ -3207,7 +3225,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
@@ -3236,7 +3254,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -3265,7 +3283,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
@@ -3294,7 +3312,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
@@ -3323,7 +3341,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
@@ -3355,7 +3373,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
         <v>20</v>
@@ -3384,7 +3402,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C78" t="s">
         <v>21</v>
@@ -3413,7 +3431,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
@@ -3442,7 +3460,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3471,7 +3489,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
@@ -3492,7 +3510,7 @@
         <v>290238</v>
       </c>
       <c r="I81" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3500,7 +3518,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
@@ -3529,7 +3547,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
@@ -3561,7 +3579,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C84" t="s">
         <v>20</v>
@@ -3590,7 +3608,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
         <v>21</v>
@@ -3619,7 +3637,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
@@ -3648,7 +3666,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -3677,7 +3695,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
         <v>15</v>
@@ -3706,7 +3724,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
@@ -3738,7 +3756,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C90" t="s">
         <v>19</v>
@@ -3767,7 +3785,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
         <v>20</v>
@@ -3796,7 +3814,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
         <v>21</v>
@@ -3825,7 +3843,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
         <v>10</v>
@@ -3854,7 +3872,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -3883,7 +3901,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C95" t="s">
         <v>15</v>
@@ -3915,7 +3933,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
@@ -3944,7 +3962,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C97" t="s">
         <v>19</v>
@@ -3973,7 +3991,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C98" t="s">
         <v>20</v>
@@ -4002,7 +4020,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
         <v>21</v>
@@ -4031,7 +4049,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
         <v>10</v>
@@ -4060,7 +4078,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -4092,7 +4110,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
         <v>15</v>
@@ -4121,7 +4139,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
@@ -4150,7 +4168,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
         <v>19</v>
@@ -4179,7 +4197,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C105" t="s">
         <v>20</v>
@@ -4208,7 +4226,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
         <v>21</v>
@@ -4237,7 +4255,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C107" t="s">
         <v>10</v>
@@ -4266,7 +4284,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -4295,7 +4313,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C109" t="s">
         <v>15</v>
@@ -4327,7 +4345,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C110" t="s">
         <v>18</v>
@@ -4356,7 +4374,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C111" t="s">
         <v>19</v>
@@ -4385,7 +4403,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C112" t="s">
         <v>20</v>
@@ -4414,7 +4432,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C113" t="s">
         <v>21</v>
@@ -4443,7 +4461,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C114" t="s">
         <v>10</v>
@@ -4472,7 +4490,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -4501,7 +4519,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
@@ -4533,7 +4551,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C117" t="s">
         <v>18</v>
@@ -4562,7 +4580,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C118" t="s">
         <v>19</v>
@@ -4591,7 +4609,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C119" t="s">
         <v>20</v>
@@ -4620,7 +4638,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C120" t="s">
         <v>21</v>
@@ -4649,7 +4667,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
@@ -4678,7 +4696,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
@@ -4707,7 +4725,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
@@ -4736,7 +4754,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C124" t="s">
         <v>18</v>
@@ -4768,7 +4786,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C125" t="s">
         <v>19</v>
@@ -4797,7 +4815,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C126" t="s">
         <v>20</v>
@@ -4826,7 +4844,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C127" t="s">
         <v>21</v>
@@ -4855,7 +4873,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C128" t="s">
         <v>10</v>
@@ -4884,7 +4902,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -4913,7 +4931,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C130" t="s">
         <v>15</v>
@@ -4942,7 +4960,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C131" t="s">
         <v>18</v>
@@ -4974,7 +4992,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C132" t="s">
         <v>19</v>
@@ -5003,7 +5021,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C133" t="s">
         <v>20</v>
@@ -5032,7 +5050,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C134" t="s">
         <v>21</v>
@@ -5061,7 +5079,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C135" t="s">
         <v>10</v>
@@ -5090,7 +5108,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -5119,7 +5137,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C137" t="s">
         <v>15</v>
@@ -5148,7 +5166,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C138" t="s">
         <v>18</v>
@@ -5180,7 +5198,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C139" t="s">
         <v>19</v>
@@ -5209,7 +5227,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C140" t="s">
         <v>20</v>
@@ -5238,7 +5256,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C141" t="s">
         <v>21</v>
@@ -5298,25 +5316,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5330,16 +5348,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1">
         <v>43798</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -5348,7 +5366,7 @@
         <v>51.4</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5362,16 +5380,16 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1">
         <v>43812</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -5380,7 +5398,7 @@
         <v>458.7</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5394,16 +5412,16 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1">
         <v>43798</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -5412,7 +5430,7 @@
         <v>249.5</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5426,16 +5444,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1">
         <v>43798</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -5444,7 +5462,7 @@
         <v>124.8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5458,16 +5476,16 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1">
         <v>43805</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -5476,7 +5494,7 @@
         <v>196.6</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5484,22 +5502,22 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1">
         <v>43811</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -5508,7 +5526,7 @@
         <v>544.5</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:10">
@@ -5516,22 +5534,22 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1">
         <v>43511</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -5540,7 +5558,7 @@
         <v>119.6</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5548,22 +5566,22 @@
         <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1">
         <v>43813</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -5572,7 +5590,7 @@
         <v>285.3</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5580,22 +5598,22 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1">
         <v>43809</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -5604,7 +5622,7 @@
         <v>60.4</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5612,16 +5630,16 @@
         <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -5630,7 +5648,7 @@
         <v>279.7</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5638,7 +5656,7 @@
         <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>

--- a/pruebas1920.xlsx
+++ b/pruebas1920.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="58">
   <si>
     <t>Prueba</t>
   </si>
@@ -98,10 +98,7 @@
     <t>jeeeeeeeee</t>
   </si>
   <si>
-    <t>jo</t>
-  </si>
-  <si>
-    <t>jeo</t>
+    <t>w</t>
   </si>
   <si>
     <t>Cerler</t>
@@ -199,10 +196,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -220,6 +217,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -227,7 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,9 +261,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,24 +276,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,8 +299,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +316,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -335,7 +331,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,14 +346,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,7 +381,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,19 +417,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,31 +465,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,31 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,73 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,23 +578,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,15 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -641,13 +632,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,22 +664,24 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,127 +696,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,10 +1146,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -2419,7 +2416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2446,6 +2443,9 @@
       </c>
       <c r="I45" t="s">
         <v>16</v>
+      </c>
+      <c r="L45" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2628,7 +2628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2655,12 +2655,6 @@
       </c>
       <c r="I52" t="s">
         <v>16</v>
-      </c>
-      <c r="L52" t="s">
-        <v>27</v>
-      </c>
-      <c r="M52" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2813,7 +2807,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -2842,7 +2836,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -2871,7 +2865,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
@@ -2892,7 +2886,7 @@
         <v>290211</v>
       </c>
       <c r="I60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2900,7 +2894,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
@@ -2929,7 +2923,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
         <v>19</v>
@@ -2961,7 +2955,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
         <v>20</v>
@@ -2990,7 +2984,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
         <v>21</v>
@@ -3019,7 +3013,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -3048,7 +3042,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3077,7 +3071,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
@@ -3106,7 +3100,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -3138,7 +3132,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
@@ -3167,7 +3161,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
         <v>20</v>
@@ -3196,7 +3190,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
         <v>21</v>
@@ -3225,7 +3219,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
@@ -3254,7 +3248,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -3283,7 +3277,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
@@ -3312,7 +3306,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
@@ -3341,7 +3335,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
@@ -3373,7 +3367,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
         <v>20</v>
@@ -3402,7 +3396,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
         <v>21</v>
@@ -3431,7 +3425,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
@@ -3460,7 +3454,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3489,7 +3483,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
@@ -3510,7 +3504,7 @@
         <v>290238</v>
       </c>
       <c r="I81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3518,7 +3512,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
@@ -3547,7 +3541,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
@@ -3579,7 +3573,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C84" t="s">
         <v>20</v>
@@ -3608,7 +3602,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
         <v>21</v>
@@ -3637,7 +3631,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
@@ -3666,7 +3660,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -3695,7 +3689,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C88" t="s">
         <v>15</v>
@@ -3724,7 +3718,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
@@ -3756,7 +3750,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C90" t="s">
         <v>19</v>
@@ -3785,7 +3779,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C91" t="s">
         <v>20</v>
@@ -3814,7 +3808,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C92" t="s">
         <v>21</v>
@@ -3843,7 +3837,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C93" t="s">
         <v>10</v>
@@ -3872,7 +3866,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -3901,7 +3895,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C95" t="s">
         <v>15</v>
@@ -3933,7 +3927,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
@@ -3962,7 +3956,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C97" t="s">
         <v>19</v>
@@ -3991,7 +3985,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C98" t="s">
         <v>20</v>
@@ -4020,7 +4014,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C99" t="s">
         <v>21</v>
@@ -4049,7 +4043,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C100" t="s">
         <v>10</v>
@@ -4078,7 +4072,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -4110,7 +4104,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C102" t="s">
         <v>15</v>
@@ -4139,7 +4133,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
@@ -4168,7 +4162,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C104" t="s">
         <v>19</v>
@@ -4197,7 +4191,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C105" t="s">
         <v>20</v>
@@ -4226,7 +4220,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C106" t="s">
         <v>21</v>
@@ -4255,7 +4249,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C107" t="s">
         <v>10</v>
@@ -4284,7 +4278,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -4313,7 +4307,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C109" t="s">
         <v>15</v>
@@ -4345,7 +4339,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C110" t="s">
         <v>18</v>
@@ -4374,7 +4368,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C111" t="s">
         <v>19</v>
@@ -4403,7 +4397,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C112" t="s">
         <v>20</v>
@@ -4432,7 +4426,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C113" t="s">
         <v>21</v>
@@ -4461,7 +4455,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C114" t="s">
         <v>10</v>
@@ -4490,7 +4484,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -4519,7 +4513,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
@@ -4551,7 +4545,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C117" t="s">
         <v>18</v>
@@ -4580,7 +4574,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C118" t="s">
         <v>19</v>
@@ -4609,7 +4603,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C119" t="s">
         <v>20</v>
@@ -4638,7 +4632,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
         <v>21</v>
@@ -4667,7 +4661,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
@@ -4696,7 +4690,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
@@ -4725,7 +4719,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
@@ -4754,7 +4748,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C124" t="s">
         <v>18</v>
@@ -4786,7 +4780,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C125" t="s">
         <v>19</v>
@@ -4815,7 +4809,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C126" t="s">
         <v>20</v>
@@ -4844,7 +4838,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C127" t="s">
         <v>21</v>
@@ -4873,7 +4867,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C128" t="s">
         <v>10</v>
@@ -4902,7 +4896,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -4931,7 +4925,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C130" t="s">
         <v>15</v>
@@ -4960,7 +4954,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C131" t="s">
         <v>18</v>
@@ -4992,7 +4986,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C132" t="s">
         <v>19</v>
@@ -5021,7 +5015,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C133" t="s">
         <v>20</v>
@@ -5050,7 +5044,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C134" t="s">
         <v>21</v>
@@ -5079,7 +5073,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C135" t="s">
         <v>10</v>
@@ -5108,7 +5102,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -5137,7 +5131,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C137" t="s">
         <v>15</v>
@@ -5166,7 +5160,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C138" t="s">
         <v>18</v>
@@ -5198,7 +5192,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C139" t="s">
         <v>19</v>
@@ -5227,7 +5221,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C140" t="s">
         <v>20</v>
@@ -5256,7 +5250,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C141" t="s">
         <v>21</v>
@@ -5316,25 +5310,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
         <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5348,16 +5342,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
       </c>
       <c r="F2" s="1">
         <v>43798</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -5366,7 +5360,7 @@
         <v>51.4</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5380,16 +5374,16 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
       </c>
       <c r="F3" s="1">
         <v>43812</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -5398,7 +5392,7 @@
         <v>458.7</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5412,16 +5406,16 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1">
         <v>43798</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -5430,7 +5424,7 @@
         <v>249.5</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5444,16 +5438,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1">
         <v>43798</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -5462,7 +5456,7 @@
         <v>124.8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5476,16 +5470,16 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
       </c>
       <c r="F6" s="1">
         <v>43805</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -5494,7 +5488,7 @@
         <v>196.6</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5502,22 +5496,22 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1">
         <v>43811</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -5526,7 +5520,7 @@
         <v>544.5</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:10">
@@ -5534,22 +5528,22 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1">
         <v>43511</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -5558,7 +5552,7 @@
         <v>119.6</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5566,22 +5560,22 @@
         <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1">
         <v>43813</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -5590,7 +5584,7 @@
         <v>285.3</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5598,22 +5592,22 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1">
         <v>43809</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -5622,7 +5616,7 @@
         <v>60.4</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5630,16 +5624,16 @@
         <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -5648,7 +5642,7 @@
         <v>279.7</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5656,7 +5650,7 @@
         <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
